--- a/API_Automation_TestCaseDocument.xlsx
+++ b/API_Automation_TestCaseDocument.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>URI</t>
   </si>
@@ -52,27 +52,6 @@
   </si>
   <si>
     <t>path paramter = /2</t>
-  </si>
-  <si>
-    <t>TC 4</t>
-  </si>
-  <si>
-    <t>TC 5</t>
-  </si>
-  <si>
-    <t>TC 6</t>
-  </si>
-  <si>
-    <t>TC 7</t>
-  </si>
-  <si>
-    <t>TC 8</t>
-  </si>
-  <si>
-    <t>TC 9</t>
-  </si>
-  <si>
-    <t>TC 10</t>
   </si>
   <si>
     <t>Post</t>
@@ -102,54 +81,6 @@
   </si>
   <si>
     <t>https://reqres.in/api/users</t>
-  </si>
-  <si>
-    <t>tests["verify token presence"]=responseBody.has("token");</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/login</t>
-  </si>
-  <si>
-    <t>{
-    "email": "eve.holt@reqres.in",
-    "password": "cityslicka"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "token": "QpwL5tke4Pnpja7X4"
-}</t>
-  </si>
-  <si>
-    <t>login success</t>
-  </si>
-  <si>
-    <t>{
-    "email": "myemailinvalid@reqres.in",
-    "password": "cityslicka"
-}</t>
-  </si>
-  <si>
-    <t>tests["verify token presence"]=responseCode.code==400;</t>
-  </si>
-  <si>
-    <t>{
-    "error": "user not found"
-}</t>
-  </si>
-  <si>
-    <t>login unsuccessful</t>
-  </si>
-  <si>
-    <t>{
-    "email": "eve.holt@reqres.in",
-    "password": ""
-}</t>
-  </si>
-  <si>
-    <t>{
-    "error": "Missing password"
-}</t>
   </si>
   <si>
     <t>Test Case Desciption</t>
@@ -563,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,12 +513,12 @@
     <col min="11" max="11" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="60">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -599,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>1</v>
@@ -619,10 +550,10 @@
     </row>
     <row r="2" spans="1:11" ht="165">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -631,43 +562,43 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -676,129 +607,73 @@
     </row>
     <row r="4" spans="1:11" ht="105">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <v>201</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="75">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <v>200</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2">
-        <v>400</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="75">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="2">
-        <v>400</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -811,9 +686,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -826,9 +699,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -841,9 +712,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -936,17 +805,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="D7" r:id="rId7"/>
-    <hyperlink ref="E7" r:id="rId8"/>
-    <hyperlink ref="E2" r:id="rId9"/>
-    <hyperlink ref="D2" r:id="rId10"/>
-    <hyperlink ref="D3" r:id="rId11"/>
-    <hyperlink ref="E3" r:id="rId12"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/API_Automation_TestCaseDocument.xlsx
+++ b/API_Automation_TestCaseDocument.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>URI</t>
   </si>
@@ -71,12 +71,6 @@
 }</t>
   </si>
   <si>
-    <t>var resp=JSON.parse(responseBody);
-tests["verify first name"] = resp.name =="santhosh";
-tests["verify last name"] = resp.job =="Tester";
-tests["verify if response code is OK"] = responseCode.code ==201;</t>
-  </si>
-  <si>
     <t>create user</t>
   </si>
   <si>
@@ -116,6 +110,93 @@
 "name": "joey",
  "job": "testing"
 }</t>
+  </si>
+  <si>
+    <t>validate headers</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>Assert.assertEquals(201, statuscode);
+String successbody=response.jsonPath().getString("name"); &gt;&gt;Assert.assertEquals("joey", successbody);</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com//api/v1/employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validating headers </t>
+  </si>
+  <si>
+    <t>String ContentEncoding=response.header("Content-Encoding");
+Assert.assertEquals("gzip", ContentEncoding);</t>
+  </si>
+  <si>
+    <t>TC 004</t>
+  </si>
+  <si>
+    <t>TC 005</t>
+  </si>
+  <si>
+    <t>TC 006</t>
+  </si>
+  <si>
+    <t>TC 007</t>
+  </si>
+  <si>
+    <t>Print all headers</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/employees</t>
+  </si>
+  <si>
+    <t>printing all headers using 'Header' class</t>
+  </si>
+  <si>
+    <t>Headers allheaders=response.headers();
+for(Headers myheader:  allheaders){ print(myheader.getName() + myheader.getValue())}</t>
+  </si>
+  <si>
+    <t>{"status":"success","data":[{"id":1,"employee_name":"Tiger Nixon","employee_salary":320800,"employee_age":61,"profile_image":""},{"id":2,"employee_name":"Garrett Winters","employee_salary":170750,"employee_age":63,"profile_image":""},{"id":3,"employee_name":"Ashton Cox","employee_salary":86000,"employee_age":66,"profile_image":""},{"id":4,"employee_name":"Cedric Kelly","employee_salary":433060,"employee_age":22,"profile_image":""},{"id":5,"employee_name":"Airi Satou","employee_salary":162700,"employee_age":33,"profile_image":""},{"id":6,"employee_name":"Brielle Williamson","employee_salary":372000,"employee_age":61,"profile_image":""},{"id":7,"employee_name":"Herrod Chandler","employee_salary":137500,"employee_age":59,"profile_image":""},{"id":8,"employee_name":"Rhona Davidson","employee_salary":327900,"employee_age":55,"profile_image":""},{"id":9,"employee_name":"Colleen Hurst","employee_salary":205500,"employee_age":39,"profile_image":""},{"id":10,"employee_name":"Sonya Frost","employee_salary":103600,"employee_age":23,"profile_image":""},{"id":11,"employee_name":"Jena Gaines","employee_salary":90560,"employee_age":30,"profile_image":""},{"id":12,"employee_name":"Quinn Flynn","employee_salary":342000,"employee_age":22,"profile_image":""},{"id":13,"employee_name":"Charde Marshall","employee_salary":470600,"employee_age":36,"profile_image":""},{"id":14,"employee_name":"Haley Kennedy","employee_salary":313500,"employee_age":43,"profile_image":""},{"id":15,"employee_name":"Tatyana Fitzpatrick","employee_salary":385750,"employee_age":19,"profile_image":""},{"id":16,"employee_name":"Michael Silva","employee_salary":198500,"employee_age":66,"profile_image":""},{"id":17,"employee_name":"Paul Byrd","employee_salary":725000,"employee_age":64,"profile_image":""},{"id":18,"employee_name":"Gloria Little","employee_salary":237500,"employee_age":59,"profile_image":""},{"id":19,"employee_name":"Bradley Greer","employee_salary":132000,"employee_age":41,"profile_image":""},{"id":20,"employee_name":"Dai Rios","employee_salary":217500,"employee_age":35,"profile_image":""},{"id":21,"employee_name":"Jenette Caldwell","employee_salary":345000,"employee_age":30,"profile_image":""},{"id":22,"employee_name":"Yuri Berry","employee_salary":675000,"employee_age":40,"profile_image":""},{"id":23,"employee_name":"Caesar Vance","employee_salary":106450,"employee_age":21,"profile_image":""},{"id":24,"employee_name":"Doris Wilder","employee_salary":85600,"employee_age":23,"profile_image":""}],"message":"Successfully! All records has been fetched."}</t>
+  </si>
+  <si>
+    <t>verifying presence fof particular entity</t>
+  </si>
+  <si>
+    <t>String responsebody=response.getBody().asString();
+Assert.assertEquals(responsebody.contains("Dai Rios"), true);</t>
+  </si>
+  <si>
+    <t>validate response Body -SingleEntity - One Node alone</t>
+  </si>
+  <si>
+    <t>validate response Body -AllEntity - All Nodes</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/employee/1</t>
+  </si>
+  <si>
+    <t>path paramter = /employee/1</t>
+  </si>
+  <si>
+    <t>{"status":"success","data":{"id":1,"employee_name":"Tiger Nixon","employee_salary":320800,"employee_age":61,"profile_image":""},"message":"Successfully! Record has been fetched."}</t>
+  </si>
+  <si>
+    <t>JsonPath jsonpath=response.jsonPath();
+Assert.assertEquals(jsonpath.get("data.employee_name"), "Tiger Nixon");</t>
+  </si>
+  <si>
+    <t>Basic authentication</t>
+  </si>
+  <si>
+    <t>200 - if authentication successful
+401 - unauthorized</t>
   </si>
 </sst>
 </file>
@@ -183,7 +264,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -197,6 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -550,10 +632,10 @@
     </row>
     <row r="2" spans="1:11" ht="165">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -562,31 +644,31 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="105">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -595,93 +677,174 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>201</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="105">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>201</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I6" s="2">
+        <v>200</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="120">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="I7" s="2">
+        <v>200</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -804,12 +967,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="E3" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="D6" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="D7" r:id="rId10"/>
+    <hyperlink ref="E7" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/API_Automation_TestCaseDocument.xlsx
+++ b/API_Automation_TestCaseDocument.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>URI</t>
   </si>
@@ -147,6 +147,9 @@
     <t>TC 007</t>
   </si>
   <si>
+    <t>TC 008</t>
+  </si>
+  <si>
     <t>Print all headers</t>
   </si>
   <si>
@@ -197,13 +200,34 @@
   <si>
     <t>200 - if authentication successful
 401 - unauthorized</t>
+  </si>
+  <si>
+    <t>No api found yet--try for it</t>
+  </si>
+  <si>
+    <t>Data Driven</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1</t>
+  </si>
+  <si>
+    <t>path param: /create</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>"JSONObject requestparams=new JSONObject();
+  requestparams.put("name", "joey");
+  requestparams.put("salary", "testing");
+   requestparams.put("age", "30");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +242,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +264,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -256,6 +294,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -264,7 +339,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,6 +354,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -574,10 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -713,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>7</v>
@@ -733,32 +818,32 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>200</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75">
@@ -766,32 +851,32 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>200</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="120">
@@ -799,32 +884,32 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>200</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75">
@@ -832,46 +917,62 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
+      <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="165">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
@@ -965,7 +1066,23 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:K9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
@@ -978,8 +1095,11 @@
     <hyperlink ref="E6" r:id="rId9"/>
     <hyperlink ref="D7" r:id="rId10"/>
     <hyperlink ref="E7" r:id="rId11"/>
+    <hyperlink ref="D10" r:id="rId12"/>
+    <hyperlink ref="E10" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
